--- a/data/datasets_table.xlsx
+++ b/data/datasets_table.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ojcchar/repositories/Projects/complexity-verification-project/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A04AC0-280B-3244-8A20-95238539DBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDB750A-3D5C-4F50-9FFB-3E571238800B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{D8548C5F-7E37-3547-892E-1B34AD6D2A43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D8548C5F-7E37-3547-892E-1B34AD6D2A43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -545,16 +539,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -577,7 +571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -600,7 +594,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -623,7 +617,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -646,7 +640,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -669,7 +663,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -692,7 +686,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="71" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -715,7 +709,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,5 +734,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>